--- a/outputs/c/_oil_both.xlsx
+++ b/outputs/c/_oil_both.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="229">
   <si>
     <t>participant</t>
   </si>
@@ -48,9 +48,6 @@
     <t>place_2</t>
   </si>
   <si>
-    <t>activity</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -690,9 +687,6 @@
     <t>activity 2</t>
   </si>
   <si>
-    <t>uniq</t>
-  </si>
-  <si>
     <t>refillable_spray</t>
   </si>
   <si>
@@ -703,6 +697,15 @@
   </si>
   <si>
     <t>comments</t>
+  </si>
+  <si>
+    <t>activity 1</t>
+  </si>
+  <si>
+    <t>type_1</t>
+  </si>
+  <si>
+    <t>type_2</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +1525,7 @@
   <dimension ref="A1:AA120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="M1" sqref="M1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,22 +1572,22 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="R1" t="s">
         <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="R1" t="s">
-        <v>11</v>
       </c>
       <c r="S1" t="s">
         <v>0</v>
@@ -1593,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="U1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V1" t="s">
         <v>2</v>
@@ -1611,7 +1614,7 @@
         <v>6</v>
       </c>
       <c r="AA1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -1622,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2">
         <v>134</v>
@@ -1634,22 +1637,22 @@
         <v>2092</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -1664,7 +1667,7 @@
         <v>2</v>
       </c>
       <c r="T2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1679,13 +1682,13 @@
         <v>1250</v>
       </c>
       <c r="Y2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z2" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" t="s">
-        <v>21</v>
-      </c>
       <c r="AA2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -1696,7 +1699,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2">
         <v>31</v>
@@ -1708,25 +1711,25 @@
         <v>662</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
@@ -1741,10 +1744,10 @@
         <v>3</v>
       </c>
       <c r="T3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V3">
         <v>31</v>
@@ -1756,13 +1759,13 @@
         <v>662</v>
       </c>
       <c r="Y3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z3" t="s">
         <v>22</v>
       </c>
-      <c r="Z3" t="s">
-        <v>23</v>
-      </c>
       <c r="AA3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -1773,7 +1776,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2">
         <v>116</v>
@@ -1785,25 +1788,25 @@
         <v>1106</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
@@ -1818,10 +1821,10 @@
         <v>4</v>
       </c>
       <c r="T4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V4">
         <v>87</v>
@@ -1833,13 +1836,13 @@
         <v>878</v>
       </c>
       <c r="Y4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" t="s">
         <v>31</v>
       </c>
-      <c r="Z4" t="s">
-        <v>32</v>
-      </c>
       <c r="AA4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -1850,7 +1853,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2">
         <v>205</v>
@@ -1862,19 +1865,19 @@
         <v>2448</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -1889,10 +1892,10 @@
         <v>6</v>
       </c>
       <c r="T5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V5">
         <v>64</v>
@@ -1904,13 +1907,13 @@
         <v>900</v>
       </c>
       <c r="Y5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z5" t="s">
         <v>36</v>
       </c>
-      <c r="Z5" t="s">
-        <v>37</v>
-      </c>
       <c r="AA5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -1918,16 +1921,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -1936,10 +1939,10 @@
         <v>6</v>
       </c>
       <c r="T6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V6">
         <v>205</v>
@@ -1951,13 +1954,13 @@
         <v>2448</v>
       </c>
       <c r="Y6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z6" t="s">
         <v>33</v>
       </c>
-      <c r="Z6" t="s">
-        <v>34</v>
-      </c>
       <c r="AA6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -1968,7 +1971,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
         <v>88</v>
@@ -1980,19 +1983,19 @@
         <v>1076</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="I7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="M7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -2007,7 +2010,7 @@
         <v>7</v>
       </c>
       <c r="T7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -2022,13 +2025,13 @@
         <v>1076</v>
       </c>
       <c r="Y7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z7" t="s">
         <v>38</v>
       </c>
-      <c r="Z7" t="s">
-        <v>39</v>
-      </c>
       <c r="AA7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -2039,7 +2042,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2">
         <v>20</v>
@@ -2051,22 +2054,22 @@
         <v>228</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="I8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="M8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N8" s="2">
         <v>0</v>
@@ -2081,7 +2084,7 @@
         <v>8</v>
       </c>
       <c r="T8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -2096,13 +2099,13 @@
         <v>228</v>
       </c>
       <c r="Y8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z8" t="s">
         <v>41</v>
       </c>
-      <c r="Z8" t="s">
-        <v>42</v>
-      </c>
       <c r="AA8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
@@ -2113,7 +2116,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2">
         <v>230</v>
@@ -2125,25 +2128,25 @@
         <v>1544</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="M9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -2158,10 +2161,10 @@
         <v>9</v>
       </c>
       <c r="T9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V9">
         <v>128</v>
@@ -2173,13 +2176,13 @@
         <v>972</v>
       </c>
       <c r="Y9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z9" t="s">
         <v>47</v>
       </c>
-      <c r="Z9" t="s">
-        <v>48</v>
-      </c>
       <c r="AA9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -2190,7 +2193,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2">
         <v>127</v>
@@ -2202,25 +2205,25 @@
         <v>996</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="I10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="M10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N10" s="2">
         <v>0</v>
@@ -2235,10 +2238,10 @@
         <v>10</v>
       </c>
       <c r="T10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V10">
         <v>24</v>
@@ -2250,13 +2253,13 @@
         <v>172</v>
       </c>
       <c r="Y10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z10" t="s">
         <v>51</v>
       </c>
-      <c r="Z10" t="s">
-        <v>52</v>
-      </c>
       <c r="AA10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -2267,7 +2270,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2">
         <v>24</v>
@@ -2279,25 +2282,25 @@
         <v>310</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="I11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="M11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
@@ -2312,10 +2315,10 @@
         <v>11</v>
       </c>
       <c r="T11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V11">
         <v>24</v>
@@ -2327,13 +2330,13 @@
         <v>310</v>
       </c>
       <c r="Y11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z11" t="s">
         <v>49</v>
       </c>
-      <c r="Z11" t="s">
-        <v>50</v>
-      </c>
       <c r="AA11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
@@ -2344,7 +2347,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2">
         <v>236</v>
@@ -2356,25 +2359,25 @@
         <v>2676</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="I12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="M12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
@@ -2389,7 +2392,7 @@
         <v>12</v>
       </c>
       <c r="T12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -2404,13 +2407,13 @@
         <v>200</v>
       </c>
       <c r="Y12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z12" t="s">
         <v>57</v>
       </c>
-      <c r="Z12" t="s">
-        <v>58</v>
-      </c>
       <c r="AA12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
@@ -2421,7 +2424,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2">
         <v>300</v>
@@ -2433,25 +2436,25 @@
         <v>1878</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="I13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="M13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
@@ -2466,10 +2469,10 @@
         <v>13</v>
       </c>
       <c r="T13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V13">
         <v>47</v>
@@ -2481,13 +2484,13 @@
         <v>368</v>
       </c>
       <c r="Y13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z13" t="s">
         <v>61</v>
       </c>
-      <c r="Z13" t="s">
-        <v>62</v>
-      </c>
       <c r="AA13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -2495,22 +2498,22 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
@@ -2519,7 +2522,7 @@
         <v>13</v>
       </c>
       <c r="T14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -2534,13 +2537,13 @@
         <v>1878</v>
       </c>
       <c r="Y14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z14" t="s">
         <v>55</v>
       </c>
-      <c r="Z14" t="s">
-        <v>56</v>
-      </c>
       <c r="AA14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
@@ -2551,7 +2554,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2">
         <v>22</v>
@@ -2563,25 +2566,25 @@
         <v>226</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="I15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="M15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
@@ -2596,10 +2599,10 @@
         <v>14</v>
       </c>
       <c r="T15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V15">
         <v>22</v>
@@ -2611,13 +2614,13 @@
         <v>226</v>
       </c>
       <c r="Y15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z15" t="s">
         <v>59</v>
       </c>
-      <c r="Z15" t="s">
-        <v>60</v>
-      </c>
       <c r="AA15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
@@ -2628,7 +2631,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2">
         <v>89</v>
@@ -2640,25 +2643,25 @@
         <v>432</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="I16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="M16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
@@ -2673,7 +2676,7 @@
         <v>15</v>
       </c>
       <c r="T16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -2688,13 +2691,13 @@
         <v>432</v>
       </c>
       <c r="Y16" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z16" t="s">
         <v>63</v>
       </c>
-      <c r="Z16" t="s">
-        <v>64</v>
-      </c>
       <c r="AA16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
@@ -2705,7 +2708,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2">
         <v>168</v>
@@ -2717,19 +2720,19 @@
         <v>1130</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="I17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>
@@ -2744,10 +2747,10 @@
         <v>16</v>
       </c>
       <c r="T17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V17">
         <v>4</v>
@@ -2759,13 +2762,13 @@
         <v>104</v>
       </c>
       <c r="Y17" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z17" t="s">
         <v>77</v>
       </c>
-      <c r="Z17" t="s">
-        <v>78</v>
-      </c>
       <c r="AA17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
@@ -2776,7 +2779,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2">
         <v>93</v>
@@ -2788,25 +2791,25 @@
         <v>1276</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="I18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="M18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N18" s="2">
         <v>0</v>
@@ -2821,10 +2824,10 @@
         <v>17</v>
       </c>
       <c r="T18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V18">
         <v>93</v>
@@ -2836,13 +2839,13 @@
         <v>1276</v>
       </c>
       <c r="Y18" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z18" t="s">
         <v>67</v>
       </c>
-      <c r="Z18" t="s">
-        <v>68</v>
-      </c>
       <c r="AA18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
@@ -2853,7 +2856,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2">
         <v>92</v>
@@ -2865,19 +2868,19 @@
         <v>473</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="M19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N19" s="2">
         <v>0</v>
@@ -2892,10 +2895,10 @@
         <v>18</v>
       </c>
       <c r="T19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V19">
         <v>78</v>
@@ -2907,13 +2910,13 @@
         <v>458</v>
       </c>
       <c r="Y19" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z19" t="s">
         <v>84</v>
       </c>
-      <c r="Z19" t="s">
-        <v>85</v>
-      </c>
       <c r="AA19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
@@ -2924,7 +2927,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2">
         <v>221</v>
@@ -2936,25 +2939,25 @@
         <v>1692</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="J20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="Q20">
         <v>4135</v>
@@ -2966,10 +2969,10 @@
         <v>19</v>
       </c>
       <c r="T20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V20">
         <v>120</v>
@@ -2981,13 +2984,13 @@
         <v>800</v>
       </c>
       <c r="Y20" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z20" t="s">
         <v>89</v>
       </c>
-      <c r="Z20" t="s">
-        <v>90</v>
-      </c>
       <c r="AA20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
@@ -2995,28 +2998,28 @@
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="M21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="S21" s="1">
         <v>19</v>
       </c>
       <c r="T21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V21">
         <v>222</v>
@@ -3028,13 +3031,13 @@
         <v>1692</v>
       </c>
       <c r="Y21" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z21" t="s">
         <v>74</v>
       </c>
-      <c r="Z21" t="s">
-        <v>75</v>
-      </c>
       <c r="AA21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
@@ -3045,7 +3048,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2">
         <v>436</v>
@@ -3057,28 +3060,28 @@
         <v>2898</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="I22" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="Q22">
         <v>9316</v>
@@ -3090,10 +3093,10 @@
         <v>20</v>
       </c>
       <c r="T22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V22">
         <v>114</v>
@@ -3105,13 +3108,13 @@
         <v>806</v>
       </c>
       <c r="Y22" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z22" t="s">
         <v>95</v>
       </c>
-      <c r="Z22" t="s">
-        <v>96</v>
-      </c>
       <c r="AA22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
@@ -3119,25 +3122,25 @@
         <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="M23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="S23" s="1">
         <v>20</v>
       </c>
       <c r="T23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -3152,13 +3155,13 @@
         <v>2898</v>
       </c>
       <c r="Y23" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z23" t="s">
         <v>79</v>
       </c>
-      <c r="Z23" t="s">
-        <v>80</v>
-      </c>
       <c r="AA23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
@@ -3169,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D24" s="2">
         <v>224</v>
@@ -3181,19 +3184,19 @@
         <v>1656</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="I24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N24" s="2">
         <v>0</v>
@@ -3208,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="T24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -3223,13 +3226,13 @@
         <v>1656</v>
       </c>
       <c r="Y24" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z24" t="s">
         <v>82</v>
       </c>
-      <c r="Z24" t="s">
-        <v>83</v>
-      </c>
       <c r="AA24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
@@ -3240,7 +3243,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="2">
         <v>144</v>
@@ -3252,25 +3255,25 @@
         <v>2278</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="I25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="M25" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N25" s="2">
         <v>0</v>
@@ -3285,7 +3288,7 @@
         <v>2</v>
       </c>
       <c r="T25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -3300,13 +3303,13 @@
         <v>2278</v>
       </c>
       <c r="Y25" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z25" t="s">
         <v>86</v>
       </c>
-      <c r="Z25" t="s">
-        <v>87</v>
-      </c>
       <c r="AA25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
@@ -3317,7 +3320,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="2">
         <v>35</v>
@@ -3329,25 +3332,25 @@
         <v>798</v>
       </c>
       <c r="G26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="I26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="M26" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N26" s="2">
         <v>0</v>
@@ -3362,10 +3365,10 @@
         <v>3</v>
       </c>
       <c r="T26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V26">
         <v>35</v>
@@ -3377,13 +3380,13 @@
         <v>798</v>
       </c>
       <c r="Y26" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z26" t="s">
         <v>91</v>
       </c>
-      <c r="Z26" t="s">
-        <v>92</v>
-      </c>
       <c r="AA26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
@@ -3394,7 +3397,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="2">
         <v>145</v>
@@ -3406,25 +3409,25 @@
         <v>1564</v>
       </c>
       <c r="G27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="I27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="N27" s="2">
         <v>0</v>
@@ -3439,10 +3442,10 @@
         <v>4</v>
       </c>
       <c r="T27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V27">
         <v>143</v>
@@ -3454,13 +3457,13 @@
         <v>1546</v>
       </c>
       <c r="Y27" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z27" t="s">
         <v>106</v>
       </c>
-      <c r="Z27" t="s">
-        <v>107</v>
-      </c>
       <c r="AA27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
@@ -3471,7 +3474,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="2">
         <v>50</v>
@@ -3483,19 +3486,19 @@
         <v>1760</v>
       </c>
       <c r="G28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="I28" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N28" s="2">
         <v>0</v>
@@ -3510,7 +3513,7 @@
         <v>5</v>
       </c>
       <c r="T28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -3525,13 +3528,13 @@
         <v>1760</v>
       </c>
       <c r="Y28" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z28" t="s">
         <v>97</v>
       </c>
-      <c r="Z28" t="s">
-        <v>98</v>
-      </c>
       <c r="AA28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
@@ -3542,7 +3545,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29" s="2">
         <v>260</v>
@@ -3554,25 +3557,25 @@
         <v>3900</v>
       </c>
       <c r="G29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="I29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="M29" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N29" s="2">
         <v>0</v>
@@ -3587,10 +3590,10 @@
         <v>6</v>
       </c>
       <c r="T29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V29">
         <v>260</v>
@@ -3602,13 +3605,13 @@
         <v>3900</v>
       </c>
       <c r="Y29" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z29" t="s">
         <v>99</v>
       </c>
-      <c r="Z29" t="s">
-        <v>100</v>
-      </c>
       <c r="AA29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
@@ -3616,16 +3619,16 @@
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="M30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N30" s="2">
         <v>0</v>
@@ -3634,10 +3637,10 @@
         <v>6</v>
       </c>
       <c r="T30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V30">
         <v>284</v>
@@ -3649,13 +3652,13 @@
         <v>4224</v>
       </c>
       <c r="Y30" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z30" t="s">
         <v>114</v>
       </c>
-      <c r="Z30" t="s">
-        <v>115</v>
-      </c>
       <c r="AA30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
@@ -3666,7 +3669,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D31" s="2">
         <v>29</v>
@@ -3678,19 +3681,19 @@
         <v>366</v>
       </c>
       <c r="G31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="I31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="M31" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N31" s="2">
         <v>0</v>
@@ -3705,7 +3708,7 @@
         <v>7</v>
       </c>
       <c r="T31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U31">
         <v>0</v>
@@ -3720,13 +3723,13 @@
         <v>366</v>
       </c>
       <c r="Y31" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z31" t="s">
         <v>101</v>
       </c>
-      <c r="Z31" t="s">
-        <v>102</v>
-      </c>
       <c r="AA31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
@@ -3737,7 +3740,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D32" s="2">
         <v>102</v>
@@ -3749,25 +3752,25 @@
         <v>980</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="L32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L32" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="M32" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N32" s="2">
         <v>0</v>
@@ -3782,7 +3785,7 @@
         <v>8</v>
       </c>
       <c r="T32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -3797,13 +3800,13 @@
         <v>980</v>
       </c>
       <c r="Y32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AA32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
@@ -3814,7 +3817,7 @@
         <v>9</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33" s="2">
         <v>47</v>
@@ -3826,25 +3829,25 @@
         <v>472</v>
       </c>
       <c r="G33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="I33" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="L33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L33" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="M33" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N33" s="2">
         <v>0</v>
@@ -3859,10 +3862,10 @@
         <v>9</v>
       </c>
       <c r="T33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V33">
         <v>47</v>
@@ -3874,13 +3877,13 @@
         <v>472</v>
       </c>
       <c r="Y33" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z33" t="s">
         <v>104</v>
       </c>
-      <c r="Z33" t="s">
-        <v>105</v>
-      </c>
       <c r="AA33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
@@ -3891,7 +3894,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D34" s="2">
         <v>93</v>
@@ -3903,28 +3906,28 @@
         <v>1154</v>
       </c>
       <c r="G34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="I34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="L34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L34" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="M34" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q34">
         <v>33151</v>
@@ -3936,10 +3939,10 @@
         <v>10</v>
       </c>
       <c r="T34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V34">
         <v>56</v>
@@ -3951,13 +3954,13 @@
         <v>694</v>
       </c>
       <c r="Y34" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z34" t="s">
         <v>124</v>
       </c>
-      <c r="Z34" t="s">
-        <v>125</v>
-      </c>
       <c r="AA34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
@@ -3965,28 +3968,28 @@
         <v>10</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K35" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="M35" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="S35" s="1">
         <v>10</v>
       </c>
       <c r="T35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V35">
         <v>350</v>
@@ -3998,13 +4001,13 @@
         <v>3456</v>
       </c>
       <c r="Y35" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z35" t="s">
         <v>129</v>
       </c>
-      <c r="Z35" t="s">
-        <v>130</v>
-      </c>
       <c r="AA35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
@@ -4015,7 +4018,7 @@
         <v>11</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D36" s="2">
         <v>166</v>
@@ -4027,25 +4030,25 @@
         <v>1904</v>
       </c>
       <c r="G36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="I36" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="L36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L36" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="M36" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N36" s="2">
         <v>0</v>
@@ -4060,7 +4063,7 @@
         <v>11</v>
       </c>
       <c r="T36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U36">
         <v>0</v>
@@ -4075,13 +4078,13 @@
         <v>1904</v>
       </c>
       <c r="Y36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z36" t="s">
         <v>110</v>
       </c>
-      <c r="Z36" t="s">
-        <v>111</v>
-      </c>
       <c r="AA36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
@@ -4092,7 +4095,7 @@
         <v>13</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D37" s="2">
         <v>257</v>
@@ -4104,25 +4107,25 @@
         <v>1026</v>
       </c>
       <c r="G37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="I37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="L37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="N37" s="2">
         <v>0</v>
@@ -4137,10 +4140,10 @@
         <v>13</v>
       </c>
       <c r="T37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V37">
         <v>183</v>
@@ -4152,13 +4155,13 @@
         <v>764</v>
       </c>
       <c r="Y37" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z37" t="s">
         <v>132</v>
       </c>
-      <c r="Z37" t="s">
-        <v>133</v>
-      </c>
       <c r="AA37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
@@ -4166,16 +4169,16 @@
         <v>13</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="M38" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N38" s="2">
         <v>0</v>
@@ -4184,10 +4187,10 @@
         <v>13</v>
       </c>
       <c r="T38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V38">
         <v>251</v>
@@ -4199,13 +4202,13 @@
         <v>1006</v>
       </c>
       <c r="Y38" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z38" t="s">
         <v>134</v>
       </c>
-      <c r="Z38" t="s">
-        <v>135</v>
-      </c>
       <c r="AA38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
@@ -4213,16 +4216,16 @@
         <v>13</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N39" s="2">
         <v>0</v>
@@ -4231,28 +4234,28 @@
         <v>13</v>
       </c>
       <c r="T39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
@@ -4263,7 +4266,7 @@
         <v>15</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D40" s="2">
         <v>206</v>
@@ -4275,19 +4278,19 @@
         <v>1252</v>
       </c>
       <c r="G40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="I40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K40" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="M40" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N40" s="2">
         <v>0</v>
@@ -4302,10 +4305,10 @@
         <v>15</v>
       </c>
       <c r="T40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V40">
         <v>206</v>
@@ -4317,13 +4320,13 @@
         <v>1252</v>
       </c>
       <c r="Y40" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z40" t="s">
         <v>116</v>
       </c>
-      <c r="Z40" t="s">
-        <v>117</v>
-      </c>
       <c r="AA40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
@@ -4334,7 +4337,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D41" s="2">
         <v>183</v>
@@ -4346,22 +4349,22 @@
         <v>2976</v>
       </c>
       <c r="G41" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="I41" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N41" s="2">
         <v>0</v>
@@ -4376,10 +4379,10 @@
         <v>16</v>
       </c>
       <c r="T41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V41">
         <v>130</v>
@@ -4391,13 +4394,13 @@
         <v>2520</v>
       </c>
       <c r="Y41" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z41" t="s">
         <v>141</v>
       </c>
-      <c r="Z41" t="s">
-        <v>142</v>
-      </c>
       <c r="AA41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
@@ -4408,7 +4411,7 @@
         <v>17</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D42" s="2">
         <v>433</v>
@@ -4420,25 +4423,25 @@
         <v>4718</v>
       </c>
       <c r="G42" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="I42" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="L42" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L42" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="M42" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N42" s="2">
         <v>0</v>
@@ -4453,10 +4456,10 @@
         <v>17</v>
       </c>
       <c r="T42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V42">
         <v>13</v>
@@ -4468,13 +4471,13 @@
         <v>156</v>
       </c>
       <c r="Y42" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z42" t="s">
         <v>144</v>
       </c>
-      <c r="Z42" t="s">
-        <v>145</v>
-      </c>
       <c r="AA42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
@@ -4482,34 +4485,34 @@
         <v>17</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="L43" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L43" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="M43" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S43" s="1">
         <v>17</v>
       </c>
       <c r="T43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V43">
         <v>433</v>
@@ -4521,13 +4524,13 @@
         <v>4718</v>
       </c>
       <c r="Y43" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z43" t="s">
         <v>120</v>
       </c>
-      <c r="Z43" t="s">
-        <v>121</v>
-      </c>
       <c r="AA43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
@@ -4538,7 +4541,7 @@
         <v>18</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D44" s="2">
         <v>139</v>
@@ -4550,22 +4553,22 @@
         <v>862</v>
       </c>
       <c r="G44" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="I44" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Q44">
         <v>56181</v>
@@ -4577,10 +4580,10 @@
         <v>18</v>
       </c>
       <c r="T44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V44">
         <v>9</v>
@@ -4592,13 +4595,13 @@
         <v>130</v>
       </c>
       <c r="Y44" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z44" t="s">
         <v>147</v>
       </c>
-      <c r="Z44" t="s">
-        <v>148</v>
-      </c>
       <c r="AA44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
@@ -4606,34 +4609,34 @@
         <v>18</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="L45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L45" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="M45" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S45" s="1">
         <v>18</v>
       </c>
       <c r="T45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V45">
         <v>459</v>
@@ -4645,13 +4648,13 @@
         <v>2336</v>
       </c>
       <c r="Y45" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z45" t="s">
         <v>151</v>
       </c>
-      <c r="Z45" t="s">
-        <v>152</v>
-      </c>
       <c r="AA45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
@@ -4662,7 +4665,7 @@
         <v>19</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D46" s="2">
         <v>137</v>
@@ -4674,28 +4677,28 @@
         <v>1152</v>
       </c>
       <c r="G46" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="I46" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L46" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L46" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="M46" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Q46">
         <v>35051</v>
@@ -4707,7 +4710,7 @@
         <v>19</v>
       </c>
       <c r="T46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U46">
         <v>0</v>
@@ -4722,13 +4725,13 @@
         <v>1152</v>
       </c>
       <c r="Y46" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z46" t="s">
         <v>126</v>
       </c>
-      <c r="Z46" t="s">
-        <v>127</v>
-      </c>
       <c r="AA46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
@@ -4736,25 +4739,25 @@
         <v>36</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q47">
         <v>28761</v>
@@ -4771,7 +4774,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2">
         <v>73</v>
@@ -4783,10 +4786,10 @@
         <v>1250</v>
       </c>
       <c r="G48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="Q48">
         <v>183121</v>
@@ -4803,7 +4806,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2">
         <v>87</v>
@@ -4815,10 +4818,10 @@
         <v>878</v>
       </c>
       <c r="G49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="Q49">
         <v>251141</v>
@@ -4835,7 +4838,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2">
         <v>88</v>
@@ -4847,10 +4850,10 @@
         <v>896</v>
       </c>
       <c r="G50" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="Q50">
         <v>7791</v>
@@ -4867,7 +4870,7 @@
         <v>4</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2">
         <v>90</v>
@@ -4879,10 +4882,10 @@
         <v>950</v>
       </c>
       <c r="G51" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="Q51">
         <v>206101</v>
@@ -4899,7 +4902,7 @@
         <v>4</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2">
         <v>95</v>
@@ -4911,10 +4914,10 @@
         <v>994</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q52">
         <v>130141</v>
@@ -4931,7 +4934,7 @@
         <v>4</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2">
         <v>100</v>
@@ -4943,10 +4946,10 @@
         <v>1014</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q53">
         <v>13901</v>
@@ -4963,7 +4966,7 @@
         <v>4</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2">
         <v>210</v>
@@ -4975,10 +4978,10 @@
         <v>1684</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q54">
         <v>43371</v>
@@ -4995,7 +4998,7 @@
         <v>6</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2">
         <v>64</v>
@@ -5007,10 +5010,10 @@
         <v>900</v>
       </c>
       <c r="G55" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="Q55">
         <v>91011</v>
@@ -5027,7 +5030,7 @@
         <v>6</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2">
         <v>206</v>
@@ -5039,10 +5042,10 @@
         <v>2474</v>
       </c>
       <c r="G56" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="Q56">
         <v>45961</v>
@@ -5059,7 +5062,7 @@
         <v>9</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2">
         <v>128</v>
@@ -5071,10 +5074,10 @@
         <v>972</v>
       </c>
       <c r="G57" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="Q57">
         <v>137171</v>
@@ -5091,7 +5094,7 @@
         <v>9</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2">
         <v>142</v>
@@ -5103,10 +5106,10 @@
         <v>1052</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -5117,7 +5120,7 @@
         <v>10</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2">
         <v>24</v>
@@ -5129,10 +5132,10 @@
         <v>172</v>
       </c>
       <c r="G59" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
@@ -5143,7 +5146,7 @@
         <v>10</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2">
         <v>160</v>
@@ -5155,10 +5158,10 @@
         <v>1252</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -5169,7 +5172,7 @@
         <v>10</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2">
         <v>203</v>
@@ -5181,10 +5184,10 @@
         <v>1590</v>
       </c>
       <c r="G61" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H61" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -5195,7 +5198,7 @@
         <v>11</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2">
         <v>90</v>
@@ -5207,10 +5210,10 @@
         <v>1164</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
@@ -5221,7 +5224,7 @@
         <v>12</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2">
         <v>20</v>
@@ -5233,10 +5236,10 @@
         <v>200</v>
       </c>
       <c r="G63" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H63" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
@@ -5247,7 +5250,7 @@
         <v>12</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2">
         <v>217</v>
@@ -5259,10 +5262,10 @@
         <v>2434</v>
       </c>
       <c r="G64" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -5273,7 +5276,7 @@
         <v>13</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2">
         <v>47</v>
@@ -5285,10 +5288,10 @@
         <v>368</v>
       </c>
       <c r="G65" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -5299,7 +5302,7 @@
         <v>13</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2">
         <v>365</v>
@@ -5311,10 +5314,10 @@
         <v>2170</v>
       </c>
       <c r="G66" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -5325,7 +5328,7 @@
         <v>13</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2">
         <v>426</v>
@@ -5337,10 +5340,10 @@
         <v>2524</v>
       </c>
       <c r="G67" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H67" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -5351,7 +5354,7 @@
         <v>15</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2">
         <v>407</v>
@@ -5363,10 +5366,10 @@
         <v>2114</v>
       </c>
       <c r="G68" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -5377,7 +5380,7 @@
         <v>16</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2">
         <v>4</v>
@@ -5389,10 +5392,10 @@
         <v>104</v>
       </c>
       <c r="G69" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H69" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -5403,7 +5406,7 @@
         <v>16</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2">
         <v>9</v>
@@ -5415,10 +5418,10 @@
         <v>118</v>
       </c>
       <c r="G70" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H70" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -5429,7 +5432,7 @@
         <v>16</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2">
         <v>54</v>
@@ -5441,10 +5444,10 @@
         <v>368</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -5455,7 +5458,7 @@
         <v>16</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2">
         <v>110</v>
@@ -5467,10 +5470,10 @@
         <v>860</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -5481,7 +5484,7 @@
         <v>18</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2">
         <v>78</v>
@@ -5493,10 +5496,10 @@
         <v>458</v>
       </c>
       <c r="G73" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H73" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -5507,7 +5510,7 @@
         <v>18</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2">
         <v>222</v>
@@ -5519,10 +5522,10 @@
         <v>1016</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -5533,7 +5536,7 @@
         <v>18</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2">
         <v>276</v>
@@ -5545,10 +5548,10 @@
         <v>1384</v>
       </c>
       <c r="G75" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H75" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -5559,7 +5562,7 @@
         <v>19</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2">
         <v>120</v>
@@ -5571,10 +5574,10 @@
         <v>800</v>
       </c>
       <c r="G76" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H76" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -5585,7 +5588,7 @@
         <v>19</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2">
         <v>124</v>
@@ -5597,10 +5600,10 @@
         <v>806</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -5611,7 +5614,7 @@
         <v>19</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2">
         <v>222</v>
@@ -5623,10 +5626,10 @@
         <v>1692</v>
       </c>
       <c r="G78" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H78" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -5637,7 +5640,7 @@
         <v>19</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2">
         <v>263</v>
@@ -5649,10 +5652,10 @@
         <v>1942</v>
       </c>
       <c r="G79" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H79" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -5663,7 +5666,7 @@
         <v>19</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2">
         <v>264</v>
@@ -5675,10 +5678,10 @@
         <v>1942</v>
       </c>
       <c r="G80" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H80" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -5689,7 +5692,7 @@
         <v>20</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2">
         <v>114</v>
@@ -5701,10 +5704,10 @@
         <v>806</v>
       </c>
       <c r="G81" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H81" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -5715,7 +5718,7 @@
         <v>20</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2">
         <v>457</v>
@@ -5727,10 +5730,10 @@
         <v>3032</v>
       </c>
       <c r="G82" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H82" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -5741,7 +5744,7 @@
         <v>20</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2">
         <v>461</v>
@@ -5753,10 +5756,10 @@
         <v>3052</v>
       </c>
       <c r="G83" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H83" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -5767,7 +5770,7 @@
         <v>4</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D84" s="2">
         <v>143</v>
@@ -5779,10 +5782,10 @@
         <v>1546</v>
       </c>
       <c r="G84" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H84" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -5793,7 +5796,7 @@
         <v>4</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D85" s="2">
         <v>152</v>
@@ -5805,10 +5808,10 @@
         <v>1596</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -5819,7 +5822,7 @@
         <v>4</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D86" s="2">
         <v>170</v>
@@ -5831,10 +5834,10 @@
         <v>1766</v>
       </c>
       <c r="G86" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H86" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -5845,7 +5848,7 @@
         <v>4</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D87" s="2">
         <v>172</v>
@@ -5857,10 +5860,10 @@
         <v>1786</v>
       </c>
       <c r="G87" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H87" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -5871,7 +5874,7 @@
         <v>4</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D88" s="2">
         <v>185</v>
@@ -5883,10 +5886,10 @@
         <v>1858</v>
       </c>
       <c r="G88" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H88" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -5897,7 +5900,7 @@
         <v>6</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D89" s="2">
         <v>284</v>
@@ -5909,10 +5912,10 @@
         <v>4224</v>
       </c>
       <c r="G89" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H89" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -5923,7 +5926,7 @@
         <v>8</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D90" s="2">
         <v>138</v>
@@ -5935,10 +5938,10 @@
         <v>1400</v>
       </c>
       <c r="G90" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H90" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -5949,7 +5952,7 @@
         <v>8</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D91" s="2">
         <v>164</v>
@@ -5961,10 +5964,10 @@
         <v>1662</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -5975,7 +5978,7 @@
         <v>10</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D92" s="2">
         <v>56</v>
@@ -5987,10 +5990,10 @@
         <v>694</v>
       </c>
       <c r="G92" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H92" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -6001,7 +6004,7 @@
         <v>10</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D93" s="2">
         <v>236</v>
@@ -6013,10 +6016,10 @@
         <v>2472</v>
       </c>
       <c r="G93" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H93" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -6027,7 +6030,7 @@
         <v>10</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D94" s="2">
         <v>350</v>
@@ -6039,10 +6042,10 @@
         <v>3456</v>
       </c>
       <c r="G94" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H94" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -6053,7 +6056,7 @@
         <v>10</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D95" s="2">
         <v>471</v>
@@ -6065,10 +6068,10 @@
         <v>4272</v>
       </c>
       <c r="G95" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H95" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -6079,7 +6082,7 @@
         <v>11</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D96" s="2">
         <v>325</v>
@@ -6091,10 +6094,10 @@
         <v>3008</v>
       </c>
       <c r="G96" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H96" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -6105,7 +6108,7 @@
         <v>11</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D97" s="2">
         <v>429</v>
@@ -6117,10 +6120,10 @@
         <v>3908</v>
       </c>
       <c r="G97" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H97" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -6131,7 +6134,7 @@
         <v>11</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D98" s="2">
         <v>481</v>
@@ -6143,10 +6146,10 @@
         <v>4386</v>
       </c>
       <c r="G98" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H98" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -6157,7 +6160,7 @@
         <v>13</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D99" s="2">
         <v>183</v>
@@ -6169,10 +6172,10 @@
         <v>764</v>
       </c>
       <c r="G99" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H99" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -6183,7 +6186,7 @@
         <v>13</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D100" s="2">
         <v>251</v>
@@ -6195,10 +6198,10 @@
         <v>1006</v>
       </c>
       <c r="G100" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H100" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -6209,7 +6212,7 @@
         <v>13</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D101" s="2">
         <v>283</v>
@@ -6221,10 +6224,10 @@
         <v>1102</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -6235,7 +6238,7 @@
         <v>13</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D102" s="2">
         <v>776</v>
@@ -6247,10 +6250,10 @@
         <v>2882</v>
       </c>
       <c r="G102" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H102" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -6261,7 +6264,7 @@
         <v>13</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D103" s="2">
         <v>778</v>
@@ -6273,10 +6276,10 @@
         <v>2884</v>
       </c>
       <c r="G103" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H103" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -6287,7 +6290,7 @@
         <v>13</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D104" s="2">
         <v>779</v>
@@ -6299,10 +6302,10 @@
         <v>2888</v>
       </c>
       <c r="G104" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H104" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -6313,7 +6316,7 @@
         <v>16</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D105" s="2">
         <v>130</v>
@@ -6325,10 +6328,10 @@
         <v>2520</v>
       </c>
       <c r="G105" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H105" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -6339,7 +6342,7 @@
         <v>16</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D106" s="2">
         <v>186</v>
@@ -6351,10 +6354,10 @@
         <v>2986</v>
       </c>
       <c r="G106" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H106" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -6365,7 +6368,7 @@
         <v>16</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D107" s="2">
         <v>195</v>
@@ -6377,10 +6380,10 @@
         <v>3010</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -6391,7 +6394,7 @@
         <v>17</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D108" s="2">
         <v>13</v>
@@ -6403,10 +6406,10 @@
         <v>156</v>
       </c>
       <c r="G108" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H108" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -6417,7 +6420,7 @@
         <v>17</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D109" s="2">
         <v>270</v>
@@ -6429,10 +6432,10 @@
         <v>3540</v>
       </c>
       <c r="G109" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H109" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -6443,7 +6446,7 @@
         <v>17</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D110" s="2">
         <v>458</v>
@@ -6455,10 +6458,10 @@
         <v>4896</v>
       </c>
       <c r="G110" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H110" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -6469,7 +6472,7 @@
         <v>18</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D111" s="2">
         <v>9</v>
@@ -6481,10 +6484,10 @@
         <v>130</v>
       </c>
       <c r="G111" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H111" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -6495,7 +6498,7 @@
         <v>18</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D112" s="2">
         <v>18</v>
@@ -6507,10 +6510,10 @@
         <v>162</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -6521,7 +6524,7 @@
         <v>18</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D113" s="2">
         <v>38</v>
@@ -6533,10 +6536,10 @@
         <v>276</v>
       </c>
       <c r="G113" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H113" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -6547,7 +6550,7 @@
         <v>18</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D114" s="2">
         <v>39</v>
@@ -6559,10 +6562,10 @@
         <v>276</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -6573,7 +6576,7 @@
         <v>18</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D115" s="2">
         <v>57</v>
@@ -6585,10 +6588,10 @@
         <v>366</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -6599,7 +6602,7 @@
         <v>18</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D116" s="2">
         <v>169</v>
@@ -6611,10 +6614,10 @@
         <v>1052</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -6625,7 +6628,7 @@
         <v>18</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D117" s="2">
         <v>180</v>
@@ -6637,10 +6640,10 @@
         <v>1062</v>
       </c>
       <c r="G117" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H117" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -6651,7 +6654,7 @@
         <v>18</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D118" s="2">
         <v>344</v>
@@ -6663,10 +6666,10 @@
         <v>1834</v>
       </c>
       <c r="G118" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H118" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -6677,7 +6680,7 @@
         <v>18</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D119" s="2">
         <v>459</v>
@@ -6689,10 +6692,10 @@
         <v>2336</v>
       </c>
       <c r="G119" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H119" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -6703,7 +6706,7 @@
         <v>19</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D120" s="2">
         <v>142</v>
@@ -6715,10 +6718,10 @@
         <v>1218</v>
       </c>
       <c r="G120" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H120" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
   </sheetData>
